--- a/GA.xlsx
+++ b/GA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipe/Documents/AI-Masters/project/MyCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipe/Documents/Genetic-Algorithm-2D-Guillotine-Bin-Packing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B69B35-9CBA-804C-95B0-02107C061FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC790D-28AA-DE4E-875D-78B0AC7D7335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="3" xr2:uid="{C8CDC271-B563-0A4B-BACA-2FCD120DDE78}"/>
   </bookViews>
   <sheets>
     <sheet name="chromosome 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="chromosome 2" sheetId="2" r:id="rId3"/>
-    <sheet name="chromosome 3" sheetId="3" r:id="rId4"/>
+    <sheet name="chromosome 2" sheetId="2" r:id="rId2"/>
+    <sheet name="chromosome 3" sheetId="3" r:id="rId3"/>
+    <sheet name="LocalSearch" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>item</t>
   </si>
@@ -701,12 +701,18 @@
       <t>]</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">  Genetic Algorithm solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Genetic Algorithm solution with Local Search</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +800,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -861,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -873,6 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12105,6 +12120,1821 @@
             <a:rPr lang="en-GB" sz="1600" b="1"/>
             <a:t>2</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170745</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1D3E11-DDDB-BF4C-9EF7-874D90A28197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6921500" y="307975"/>
+          <a:ext cx="6457245" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453672</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E35AAF3-76D4-F349-9034-C1FE4DB4620F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7883172" y="307975"/>
+          <a:ext cx="22578" cy="3740150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67989732-2216-B348-883A-520FA7465CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="304800"/>
+          <a:ext cx="6553200" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC15D4D-B0F7-8346-A041-661C933A0251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2936875" y="304800"/>
+          <a:ext cx="12700" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEDEE93-6E77-FB48-A24B-1E055A3CC6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133349" y="317500"/>
+          <a:ext cx="2790825" cy="2701925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6EFAB3-078B-1742-8E0C-3E62B4E6FF01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136525" y="3035300"/>
+          <a:ext cx="1854200" cy="911225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4150E83D-93A6-9B46-81F6-562F8171CD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946399" y="304800"/>
+          <a:ext cx="3736975" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B249F8F7-D4FE-3540-8056-9D538E37AC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="311150"/>
+          <a:ext cx="942975" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 4 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7E236A-6675-0142-AFB5-3CF822CAFA65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="1216025"/>
+          <a:ext cx="2781300" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A6CAE1-26EE-4D4E-BB7B-83AC84216B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2882900" y="35953700"/>
+          <a:ext cx="3667125" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0D6A1E-AB5C-AF40-9D94-4B31719C85D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2955925" y="3082925"/>
+          <a:ext cx="3724275" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>803275</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606F0D09-42F0-9842-B96A-F378A8AED02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="34131250"/>
+          <a:ext cx="942975" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+            <a:t> 4 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6696A031-0DDC-5348-BF1B-736182C4D03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="1682750"/>
+          <a:ext cx="942975" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90D1B35-E1F5-D046-9D3C-241AB53B7656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="304800"/>
+          <a:ext cx="6553200" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C64903-71C3-A74C-9B99-4AE209C878DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2936875" y="304800"/>
+          <a:ext cx="12700" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD1FAE-EC2C-584D-B6CF-75DCD520D08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133349" y="317500"/>
+          <a:ext cx="2790825" cy="2701925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93154167-C892-AC49-BF59-D8792659A100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136525" y="3035300"/>
+          <a:ext cx="1854200" cy="911225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359B323C-BF67-8D4E-87D6-BB33E2FC69DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946399" y="5146675"/>
+          <a:ext cx="3736975" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C26FB7-BE8B-BD4A-9E42-34C433048CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="6057900"/>
+          <a:ext cx="942975" cy="1393825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 4 Item 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E2E9C3-469A-684B-8091-3985B83A7E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="6073775"/>
+          <a:ext cx="2781300" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 3 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69DB98D-34B7-AE49-8365-B0D66100A0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2921000" y="3035300"/>
+          <a:ext cx="3730625" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FE9198-654F-2244-A9B7-78ECC4F71E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2955925" y="7940675"/>
+          <a:ext cx="3724275" cy="930275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC0B76B-1E98-574C-B34F-90A5C3DBBB54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993900" y="3028950"/>
+          <a:ext cx="942975" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 Item 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12412,7 +14242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08B00C9-CA7E-D549-BA33-D6CB2D2AFF9C}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
@@ -12617,25 +14447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEB7C3-FB8A-2F44-BC8C-E53616201D32}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D73F52-15A7-AF4C-890C-91BD1DD07914}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:Q180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -12806,19 +14622,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
@@ -12866,12 +14682,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA62183-7804-0D4E-BAF6-26BE1BEEC90B}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -13033,19 +14849,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
@@ -13091,4 +14907,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA45CCB0-CD90-2F47-BBAF-B3A0E46B6898}">
+  <dimension ref="B2:C24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="24">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" ht="26">
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>